--- a/DataDocs/기획 데이터.xlsx
+++ b/DataDocs/기획 데이터.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EAEA3-7DFE-428E-B8CF-F2D4865AF3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B124A3-C7A7-4235-B0EF-745779528590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-38510" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="날씨 관련 기획 데이터" sheetId="3" r:id="rId1"/>
     <sheet name="조수간만의차 데이터" sheetId="14" r:id="rId2"/>
     <sheet name="지도 관련 기획 데이터" sheetId="4" r:id="rId3"/>
     <sheet name="물고기 관련 데이터" sheetId="1" r:id="rId4"/>
-    <sheet name="등급,아이템,재화,국가,언어,업그레이드부품 정의 데이터" sheetId="2" r:id="rId5"/>
+    <sheet name="등급,채비,재화,국가,언어,업그레이드 부품,버프 정의" sheetId="2" r:id="rId5"/>
     <sheet name="낚시배 데이터" sheetId="20" r:id="rId6"/>
     <sheet name="채비 아이템 등급별 데이터" sheetId="5" r:id="rId7"/>
     <sheet name="채비별 기능코드 데이터" sheetId="15" r:id="rId8"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="320">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>per_fiatigue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최소 가치 (가치는 물고기의 크기와 회귀도를 계산)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템타입(낚시대, 낚시줄, 바늘, 미끼, 릴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1241,6 +1233,66 @@
   </si>
   <si>
     <t>fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_data (버프/회복 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 증가량 (피로도 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 100 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 500 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 1000 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템타입(낚시대, 낚시줄, 바늘, 미끼, 릴, 업데이트 부품, 버프/회복 아이템)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,22 +1815,22 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1792,15 +1844,15 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
@@ -1814,7 +1866,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1888,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1856,7 +1908,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1876,7 +1928,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1896,7 +1948,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1916,7 +1968,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1927,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1938,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1949,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1960,8 +2012,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1975,9 +2027,9 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1991,7 +2043,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -2017,7 +2069,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -2043,7 +2095,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2067,7 +2119,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2091,7 +2143,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2115,7 +2167,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -2139,7 +2191,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2153,7 +2205,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2167,9 +2219,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2183,15 +2235,15 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>102</v>
@@ -2207,7 +2259,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2231,7 +2283,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2253,7 +2305,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -2275,7 +2327,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2298,25 +2350,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F76FDD-63C5-414E-977B-0F266FBB50CC}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2326,7 +2378,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2334,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>102</v>
@@ -2348,7 +2400,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -2356,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>100</v>
@@ -2370,49 +2422,340 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2421,23 +2764,23 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E31"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
     <col min="7" max="7" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2449,18 +2792,18 @@
       <c r="J1" s="6"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>65</v>
@@ -2472,9 +2815,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -2483,10 +2826,10 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>63</v>
@@ -2495,7 +2838,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2516,7 +2859,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2537,7 +2880,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2554,7 +2897,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2571,7 +2914,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2588,7 +2931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2605,7 +2948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2622,7 +2965,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2639,7 +2982,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2656,7 +2999,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2673,7 +3016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2690,7 +3033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2707,7 +3050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2724,7 +3067,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2741,7 +3084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2758,7 +3101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2775,7 +3118,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2792,7 +3135,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2809,7 +3152,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2826,7 +3169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2843,7 +3186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2860,7 +3203,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2877,7 +3220,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2894,7 +3237,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2911,7 +3254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2928,7 +3271,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2945,7 +3288,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2962,7 +3305,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2990,21 +3333,21 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B88"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="34.09765625" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3014,18 +3357,18 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -3035,7 +3378,7 @@
       <c r="H2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -3046,7 +3389,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>63</v>
@@ -3056,7 +3399,7 @@
       <c r="H3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3071,7 +3414,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3091,7 +3434,7 @@
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3105,7 +3448,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3119,7 +3462,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3133,7 +3476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3147,7 +3490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3161,7 +3504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -3175,7 +3518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -3189,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -3203,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -3217,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -3231,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -3245,7 +3588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -3259,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -3273,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -3287,7 +3630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -3301,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -3315,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -3329,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -3343,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3357,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3371,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3385,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3399,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -3413,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -3427,12 +3770,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3442,9 +3785,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3454,12 +3797,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>79</v>
@@ -3472,7 +3815,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -3490,7 +3833,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -3506,7 +3849,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -3518,7 +3861,7 @@
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>3</v>
       </c>
@@ -3529,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -3540,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -3551,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -3562,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>7</v>
       </c>
@@ -3573,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -3584,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>9</v>
       </c>
@@ -3595,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -3606,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>11</v>
       </c>
@@ -3617,13 +3960,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3633,9 +3976,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="13"/>
@@ -3645,7 +3988,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -3656,7 +3999,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
@@ -3667,7 +4010,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3675,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3683,7 +4026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -3691,7 +4034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3699,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3707,7 +4050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3715,7 +4058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3723,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3731,7 +4074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3739,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3747,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>4</v>
       </c>
@@ -3755,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>4</v>
       </c>
@@ -3763,7 +4106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5</v>
       </c>
@@ -3771,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5</v>
       </c>
@@ -3779,7 +4122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>5</v>
       </c>
@@ -3787,7 +4130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3795,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>6</v>
       </c>
@@ -3803,7 +4146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>6</v>
       </c>
@@ -3811,7 +4154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3819,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3827,7 +4170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>7</v>
       </c>
@@ -3835,7 +4178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3843,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3851,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3859,7 +4202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>9</v>
       </c>
@@ -3867,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3875,7 +4218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3883,7 +4226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>10</v>
       </c>
@@ -3891,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>10</v>
       </c>
@@ -3899,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>10</v>
       </c>
@@ -3907,7 +4250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>11</v>
       </c>
@@ -3915,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>11</v>
       </c>
@@ -3923,7 +4266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>11</v>
       </c>
@@ -3946,19 +4289,19 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3968,7 +4311,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -3990,7 +4333,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -4012,7 +4355,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4032,7 +4375,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4052,7 +4395,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4072,7 +4415,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4092,7 +4435,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4109,7 +4452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4126,7 +4469,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4151,34 +4494,37 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D488F26-E726-47F3-8CA5-CA09F667A869}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="4" max="5" width="30" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -4186,21 +4532,27 @@
         <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -4209,16 +4561,22 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4228,13 +4586,19 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1000</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4244,13 +4608,19 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2000</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4260,13 +4630,19 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>300</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4276,8 +4652,14 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4287,8 +4669,20 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4298,8 +4692,20 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4309,8 +4715,20 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -4320,8 +4738,20 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4331,8 +4761,20 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4342,8 +4784,20 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4353,8 +4807,20 @@
       <c r="C14" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4364,8 +4830,20 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4375,8 +4853,20 @@
       <c r="C16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4386,8 +4876,20 @@
       <c r="C17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4397,8 +4899,20 @@
       <c r="C18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4408,8 +4922,20 @@
       <c r="C19" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4419,8 +4945,20 @@
       <c r="C20" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4430,8 +4968,14 @@
       <c r="C21" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4441,8 +4985,14 @@
       <c r="C22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4452,8 +5002,14 @@
       <c r="C23" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4463,8 +5019,14 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4474,8 +5036,14 @@
       <c r="C25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4485,8 +5053,14 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4496,8 +5070,14 @@
       <c r="C27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4507,8 +5087,14 @@
       <c r="C28" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -4518,8 +5104,14 @@
       <c r="C29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -4529,8 +5121,14 @@
       <c r="C30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -4540,8 +5138,14 @@
       <c r="C31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -4551,8 +5155,14 @@
       <c r="C32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -4562,8 +5172,14 @@
       <c r="C33" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4573,8 +5189,14 @@
       <c r="C34" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4584,8 +5206,14 @@
       <c r="C35" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4595,8 +5223,14 @@
       <c r="C36" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4606,8 +5240,14 @@
       <c r="C37" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="13">
+        <v>2</v>
+      </c>
+      <c r="E37" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4617,8 +5257,14 @@
       <c r="C38" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="13">
+        <v>2</v>
+      </c>
+      <c r="E38" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4628,8 +5274,14 @@
       <c r="C39" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="13">
+        <v>2</v>
+      </c>
+      <c r="E39" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4639,8 +5291,14 @@
       <c r="C40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4650,8 +5308,14 @@
       <c r="C41" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4661,8 +5325,14 @@
       <c r="C42" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4672,8 +5342,14 @@
       <c r="C43" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4683,8 +5359,14 @@
       <c r="C44" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4694,8 +5376,14 @@
       <c r="C45" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4705,8 +5393,14 @@
       <c r="C46" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="13">
+        <v>2</v>
+      </c>
+      <c r="E46" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -4716,8 +5410,14 @@
       <c r="C47" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="13">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -4727,8 +5427,14 @@
       <c r="C48" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -4738,8 +5444,14 @@
       <c r="C49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -4749,8 +5461,14 @@
       <c r="C50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -4759,6 +5477,63 @@
       </c>
       <c r="C51">
         <v>6</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2</v>
+      </c>
+      <c r="E51" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4775,22 +5550,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="3"/>
+    <col min="9" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4800,24 +5575,24 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -4826,24 +5601,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -4852,7 +5627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4876,7 +5651,7 @@
       </c>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4900,7 +5675,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4924,7 +5699,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4948,7 +5723,7 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4972,7 +5747,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4996,7 +5771,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5020,7 +5795,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
@@ -5035,29 +5810,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDBAAD2-652A-470C-850D-6487000FE85F}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:E91"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="29.375" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" customWidth="1"/>
+    <col min="10" max="10" width="29.3984375" customWidth="1"/>
+    <col min="11" max="11" width="25.19921875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.09765625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -5071,7 +5846,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5079,7 +5854,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -5088,7 +5863,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>114</v>
@@ -5100,16 +5875,16 @@
         <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -5126,7 +5901,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>113</v>
@@ -5135,24 +5910,24 @@
         <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -5164,10 +5939,10 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
         <v>5</v>
@@ -5182,12 +5957,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="3">
         <v>300</v>
@@ -5199,10 +5974,10 @@
         <v>200</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -5217,12 +5992,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="13">
         <v>500</v>
@@ -5234,10 +6009,10 @@
         <v>300</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>15</v>
@@ -5252,12 +6027,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="13">
         <v>1000</v>
@@ -5269,10 +6044,10 @@
         <v>400</v>
       </c>
       <c r="F7" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="13">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3">
         <v>20</v>
@@ -5287,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5297,7 +6072,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5307,9 +6082,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5317,9 +6092,9 @@
       <c r="E10" s="25"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
@@ -5328,25 +6103,25 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>63</v>
@@ -5355,7 +6130,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5373,7 +6148,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -5391,7 +6166,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -5409,7 +6184,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -5427,7 +6202,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -5441,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -5455,7 +6230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>7</v>
       </c>
@@ -5469,7 +6244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -5483,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>9</v>
       </c>
@@ -5497,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>10</v>
       </c>
@@ -5511,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -5525,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>12</v>
       </c>
@@ -5539,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -5553,7 +6328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -5567,7 +6342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>15</v>
       </c>
@@ -5581,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>16</v>
       </c>
@@ -5595,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>17</v>
       </c>
@@ -5609,7 +6384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>18</v>
       </c>
@@ -5623,7 +6398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>19</v>
       </c>
@@ -5637,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>20</v>
       </c>
@@ -5651,7 +6426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>21</v>
       </c>
@@ -5665,7 +6440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>22</v>
       </c>
@@ -5679,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>23</v>
       </c>
@@ -5693,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>24</v>
       </c>
@@ -5707,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5721,7 +6496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>26</v>
       </c>
@@ -5735,7 +6510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>27</v>
       </c>
@@ -5749,7 +6524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>28</v>
       </c>
@@ -5763,9 +6538,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -5776,9 +6551,9 @@
       <c r="H43" s="7"/>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>36</v>
@@ -5795,9 +6570,9 @@
       <c r="H44" s="7"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>21</v>
@@ -5813,7 +6588,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29">
         <v>1</v>
       </c>
@@ -5830,7 +6605,7 @@
       <c r="H46" s="7"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="29">
         <v>2</v>
       </c>
@@ -5847,7 +6622,7 @@
       <c r="H47" s="7"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="29">
         <v>3</v>
       </c>
@@ -5864,7 +6639,7 @@
       <c r="H48" s="7"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="29">
         <v>4</v>
       </c>
@@ -5881,7 +6656,7 @@
       <c r="H49" s="7"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="29">
         <v>5</v>
       </c>
@@ -5898,7 +6673,7 @@
       <c r="H50" s="7"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="29">
         <v>6</v>
       </c>
@@ -5915,7 +6690,7 @@
       <c r="H51" s="7"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="29">
         <v>7</v>
       </c>
@@ -5932,7 +6707,7 @@
       <c r="H52" s="7"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="29">
         <v>8</v>
       </c>
@@ -5949,7 +6724,7 @@
       <c r="H53" s="7"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="29">
         <v>9</v>
       </c>
@@ -5966,7 +6741,7 @@
       <c r="H54" s="7"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="29">
         <v>10</v>
       </c>
@@ -5983,7 +6758,7 @@
       <c r="H55" s="7"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="29">
         <v>11</v>
       </c>
@@ -6000,7 +6775,7 @@
       <c r="H56" s="7"/>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="29">
         <v>12</v>
       </c>
@@ -6017,7 +6792,7 @@
       <c r="H57" s="7"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29">
         <v>13</v>
       </c>
@@ -6034,7 +6809,7 @@
       <c r="H58" s="7"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="29">
         <v>14</v>
       </c>
@@ -6051,7 +6826,7 @@
       <c r="H59" s="7"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="29">
         <v>15</v>
       </c>
@@ -6068,7 +6843,7 @@
       <c r="H60" s="7"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="29">
         <v>16</v>
       </c>
@@ -6085,7 +6860,7 @@
       <c r="H61" s="7"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29">
         <v>17</v>
       </c>
@@ -6102,7 +6877,7 @@
       <c r="H62" s="7"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29">
         <v>18</v>
       </c>
@@ -6119,7 +6894,7 @@
       <c r="H63" s="7"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="29">
         <v>19</v>
       </c>
@@ -6135,7 +6910,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="29">
         <v>20</v>
       </c>
@@ -6151,7 +6926,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -6161,7 +6936,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6171,7 +6946,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -6182,9 +6957,9 @@
       <c r="H68" s="9"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -6195,18 +6970,18 @@
       <c r="H69" s="7"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>106</v>
@@ -6218,9 +6993,9 @@
       <c r="H70" s="7"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>21</v>
@@ -6240,7 +7015,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="29">
         <v>1</v>
       </c>
@@ -6260,7 +7035,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -6280,7 +7055,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="29">
         <v>3</v>
       </c>
@@ -6300,7 +7075,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="29">
         <v>4</v>
       </c>
@@ -6320,7 +7095,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="29">
         <v>5</v>
       </c>
@@ -6340,7 +7115,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="29">
         <v>6</v>
       </c>
@@ -6358,7 +7133,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="29">
         <v>7</v>
       </c>
@@ -6376,7 +7151,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="29">
         <v>8</v>
       </c>
@@ -6394,7 +7169,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="29">
         <v>9</v>
       </c>
@@ -6412,7 +7187,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="29">
         <v>10</v>
       </c>
@@ -6430,7 +7205,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="29">
         <v>11</v>
       </c>
@@ -6448,7 +7223,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="29">
         <v>12</v>
       </c>
@@ -6466,7 +7241,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="29">
         <v>13</v>
       </c>
@@ -6484,7 +7259,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="29">
         <v>14</v>
       </c>
@@ -6502,7 +7277,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="29">
         <v>15</v>
       </c>
@@ -6520,7 +7295,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="29">
         <v>16</v>
       </c>
@@ -6538,7 +7313,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="29">
         <v>17</v>
       </c>
@@ -6556,7 +7331,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="29">
         <v>18</v>
       </c>
@@ -6574,7 +7349,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="29">
         <v>19</v>
       </c>
@@ -6592,7 +7367,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="29">
         <v>20</v>
       </c>
@@ -6624,28 +7399,28 @@
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="15.09765625" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" customWidth="1"/>
+    <col min="11" max="11" width="17.09765625" customWidth="1"/>
+    <col min="12" max="12" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -6659,7 +7434,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6679,13 +7454,13 @@
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>28</v>
@@ -6697,7 +7472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -6717,7 +7492,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>72</v>
@@ -6735,12 +7510,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
@@ -6770,12 +7545,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -6805,12 +7580,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3">
         <v>40</v>
@@ -6840,12 +7615,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="13">
         <v>60</v>
@@ -6875,12 +7650,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="13">
         <v>80</v>
@@ -6910,12 +7685,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="13">
         <v>100</v>
@@ -6945,12 +7720,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="13">
         <v>120</v>
@@ -6980,12 +7755,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="13">
         <v>130</v>
@@ -7015,12 +7790,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="13">
         <v>200</v>
@@ -7050,12 +7825,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="13">
         <v>350</v>
@@ -7085,12 +7860,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="13">
         <v>300</v>
@@ -7120,12 +7895,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="13">
         <v>700</v>
@@ -7155,12 +7930,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="13">
         <v>500</v>
@@ -7190,12 +7965,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="13">
         <v>600</v>
@@ -7225,12 +8000,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="13">
         <v>400</v>
@@ -7260,7 +8035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7270,7 +8045,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7280,9 +8055,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7290,13 +8065,13 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -7305,22 +8080,22 @@
         <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -7335,14 +8110,14 @@
         <v>110</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -7364,7 +8139,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -7386,7 +8161,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -7408,7 +8183,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -7430,7 +8205,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -7452,7 +8227,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -7476,7 +8251,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -7500,7 +8275,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>8</v>
       </c>
@@ -7524,7 +8299,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>9</v>
       </c>
@@ -7548,7 +8323,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>10</v>
       </c>
@@ -7572,7 +8347,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>11</v>
       </c>
@@ -7596,7 +8371,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>12</v>
       </c>
@@ -7620,7 +8395,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>13</v>
       </c>
@@ -7641,7 +8416,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>14</v>
       </c>
@@ -7662,7 +8437,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>15</v>
       </c>
@@ -7683,7 +8458,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>16</v>
       </c>
@@ -7704,7 +8479,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>17</v>
       </c>
@@ -7725,7 +8500,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>18</v>
       </c>
@@ -7746,7 +8521,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>19</v>
       </c>
@@ -7767,7 +8542,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>20</v>
       </c>
@@ -7788,7 +8563,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -7809,7 +8584,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>22</v>
       </c>
@@ -7830,7 +8605,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>23</v>
       </c>
@@ -7851,7 +8626,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>24</v>
       </c>
@@ -7872,7 +8647,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>25</v>
       </c>
@@ -7893,7 +8668,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>26</v>
       </c>
@@ -7914,7 +8689,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>27</v>
       </c>
@@ -7935,7 +8710,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>28</v>
       </c>
@@ -7956,7 +8731,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>29</v>
       </c>
@@ -7977,7 +8752,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>30</v>
       </c>
@@ -7998,7 +8773,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>31</v>
       </c>
@@ -8019,7 +8794,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>32</v>
       </c>
@@ -8040,7 +8815,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>33</v>
       </c>
@@ -8061,7 +8836,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>34</v>
       </c>
@@ -8082,7 +8857,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>35</v>
       </c>
@@ -8103,7 +8878,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>36</v>
       </c>
@@ -8124,7 +8899,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>37</v>
       </c>
@@ -8145,7 +8920,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>38</v>
       </c>
@@ -8166,7 +8941,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>39</v>
       </c>
@@ -8187,7 +8962,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>40</v>
       </c>
@@ -8208,7 +8983,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>41</v>
       </c>
@@ -8229,7 +9004,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>42</v>
       </c>
@@ -8250,7 +9025,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>43</v>
       </c>
@@ -8271,7 +9046,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>44</v>
       </c>
@@ -8292,7 +9067,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>45</v>
       </c>
@@ -8313,7 +9088,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>46</v>
       </c>
@@ -8334,7 +9109,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>47</v>
       </c>
@@ -8355,7 +9130,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>48</v>
       </c>
@@ -8376,7 +9151,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>49</v>
       </c>
@@ -8397,7 +9172,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>50</v>
       </c>
@@ -8418,7 +9193,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>51</v>
       </c>
@@ -8439,7 +9214,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>52</v>
       </c>
@@ -8460,7 +9235,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>53</v>
       </c>
@@ -8481,7 +9256,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>54</v>
       </c>
@@ -8502,7 +9277,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>55</v>
       </c>
@@ -8523,7 +9298,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>56</v>
       </c>
@@ -8544,7 +9319,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>57</v>
       </c>
@@ -8565,7 +9340,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>58</v>
       </c>
@@ -8586,7 +9361,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>59</v>
       </c>
@@ -8607,7 +9382,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>60</v>
       </c>
@@ -8639,26 +9414,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D190FDE1-416F-49C6-91A9-BD8A5F044218}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="6" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" customWidth="1"/>
+    <col min="3" max="3" width="44.59765625" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8674,7 +9449,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -8692,7 +9467,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -8708,12 +9483,12 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8722,12 +9497,12 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8736,83 +9511,83 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -8820,7 +9595,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>64</v>
@@ -8830,7 +9605,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -8838,7 +9613,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>63</v>
@@ -8848,12 +9623,12 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -8862,12 +9637,12 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8876,116 +9651,116 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -8995,12 +9770,12 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>64</v>
@@ -9011,12 +9786,12 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>63</v>
@@ -9027,12 +9802,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="13"/>
@@ -9041,12 +9816,12 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -9055,163 +9830,236 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="13"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>2</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>2</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B63" s="13"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="13"/>
-      <c r="C64" s="3"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9225,24 +10073,24 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="3" customWidth="1"/>
+    <col min="1" max="2" width="16.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.19921875" style="3" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -9251,52 +10099,52 @@
       <c r="F1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3">
         <v>1000</v>
@@ -9308,46 +10156,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="12"/>
     </row>
   </sheetData>
@@ -9361,30 +10209,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B2E8EC-9898-4606-A8E8-951C33C028FA}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.8984375" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -9394,21 +10242,21 @@
       <c r="G1" s="11"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="25"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>107</v>
@@ -9423,28 +10271,24 @@
         <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -9471,20 +10315,16 @@
         <v>48</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9509,19 +10349,15 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -9546,19 +10382,15 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="L5" s="4">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -9583,19 +10415,15 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>300</v>
-      </c>
-      <c r="L6" s="4">
         <v>9</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -9619,20 +10447,16 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="4">
-        <v>3</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -9656,20 +10480,16 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>20000</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -9693,20 +10513,16 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="J9" s="4">
         <v>9</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -9730,20 +10546,16 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="13">
-        <v>2</v>
-      </c>
-      <c r="K10" s="13">
-        <v>100</v>
-      </c>
-      <c r="L10" s="4">
-        <v>3</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -9767,20 +10579,16 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="13">
-        <v>2</v>
-      </c>
-      <c r="K11" s="13">
-        <v>200</v>
-      </c>
-      <c r="L11" s="4">
-        <v>5</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -9804,20 +10612,16 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="13">
-        <v>2</v>
-      </c>
-      <c r="K12" s="13">
-        <v>300</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="J12" s="4">
         <v>9</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9827,9 +10631,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -9839,13 +10643,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J14" s="11"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>96</v>
@@ -9860,30 +10664,26 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>46</v>
@@ -9898,28 +10698,24 @@
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -9941,17 +10737,13 @@
       <c r="G17" s="4">
         <v>100</v>
       </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>15</v>
-      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -9973,17 +10765,13 @@
       <c r="G18" s="4">
         <v>200</v>
       </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>30</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -10005,17 +10793,13 @@
       <c r="G19" s="4">
         <v>30</v>
       </c>
-      <c r="H19" s="4">
-        <v>9</v>
-      </c>
-      <c r="I19" s="4">
-        <v>60</v>
-      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -10037,17 +10821,13 @@
       <c r="G20" s="13">
         <v>100</v>
       </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>10</v>
-      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -10069,17 +10849,11 @@
       <c r="G21" s="13">
         <v>2000</v>
       </c>
-      <c r="H21" s="4">
-        <v>5</v>
-      </c>
-      <c r="I21" s="4">
-        <v>20</v>
-      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -10101,17 +10875,11 @@
       <c r="G22" s="13">
         <v>10000</v>
       </c>
-      <c r="H22" s="4">
-        <v>9</v>
-      </c>
-      <c r="I22" s="4">
-        <v>30</v>
-      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -10133,17 +10901,11 @@
       <c r="G23" s="13">
         <v>10</v>
       </c>
-      <c r="H23" s="4">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>12</v>
-      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -10165,17 +10927,11 @@
       <c r="G24" s="13">
         <v>20</v>
       </c>
-      <c r="H24" s="4">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4">
-        <v>24</v>
-      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -10197,17 +10953,11 @@
       <c r="G25" s="13">
         <v>30</v>
       </c>
-      <c r="H25" s="4">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4">
-        <v>48</v>
-      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10218,7 +10968,7 @@
       <c r="H26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10229,23 +10979,23 @@
       <c r="H27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="31"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>96</v>
@@ -10259,21 +11009,17 @@
       <c r="E29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>64</v>
       </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="13"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>46</v>
@@ -10287,18 +11033,14 @@
       <c r="E30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>63</v>
       </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -10314,17 +11056,11 @@
       <c r="E31" s="4">
         <v>5</v>
       </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
-        <v>100</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="I31" s="13"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -10340,17 +11076,11 @@
       <c r="E32" s="4">
         <v>10</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>200</v>
-      </c>
-      <c r="H32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="I32" s="13"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -10366,17 +11096,11 @@
       <c r="E33" s="4">
         <v>15</v>
       </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>30</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="I33" s="13"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -10392,17 +11116,11 @@
       <c r="E34" s="13">
         <v>2</v>
       </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13">
-        <v>100</v>
-      </c>
-      <c r="H34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -10418,17 +11136,11 @@
       <c r="E35" s="13">
         <v>5</v>
       </c>
-      <c r="F35" s="13">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13">
-        <v>2000</v>
-      </c>
-      <c r="H35" s="13"/>
+      <c r="F35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>6</v>
       </c>
@@ -10444,17 +11156,11 @@
       <c r="E36" s="13">
         <v>8</v>
       </c>
-      <c r="F36" s="13">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13">
-        <v>10000</v>
-      </c>
-      <c r="H36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -10470,17 +11176,11 @@
       <c r="E37" s="13">
         <v>8</v>
       </c>
-      <c r="F37" s="13">
-        <v>2</v>
-      </c>
-      <c r="G37" s="13">
-        <v>10</v>
-      </c>
-      <c r="H37" s="13"/>
+      <c r="F37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -10496,17 +11196,11 @@
       <c r="E38" s="13">
         <v>10</v>
       </c>
-      <c r="F38" s="13">
-        <v>2</v>
-      </c>
-      <c r="G38" s="13">
-        <v>20</v>
-      </c>
-      <c r="H38" s="13"/>
+      <c r="F38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>9</v>
       </c>
@@ -10522,17 +11216,11 @@
       <c r="E39" s="13">
         <v>13</v>
       </c>
-      <c r="F39" s="13">
-        <v>2</v>
-      </c>
-      <c r="G39" s="13">
-        <v>30</v>
-      </c>
-      <c r="H39" s="13"/>
+      <c r="F39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -10542,7 +11230,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10554,23 +11242,23 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="31"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>96</v>
@@ -10579,24 +11267,20 @@
         <v>107</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>64</v>
       </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="13"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -10607,18 +11291,14 @@
       <c r="D44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="21" t="s">
+      <c r="E44" s="21" t="s">
         <v>63</v>
       </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -10631,16 +11311,12 @@
       <c r="D45" s="4">
         <v>5</v>
       </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>100</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -10653,16 +11329,10 @@
       <c r="D46" s="4">
         <v>10</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>200</v>
-      </c>
-      <c r="G46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>3</v>
       </c>
@@ -10675,16 +11345,10 @@
       <c r="D47" s="4">
         <v>15</v>
       </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>30</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -10697,16 +11361,10 @@
       <c r="D48" s="13">
         <v>2</v>
       </c>
-      <c r="E48" s="13">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13">
-        <v>100</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -10719,16 +11377,10 @@
       <c r="D49" s="13">
         <v>5</v>
       </c>
-      <c r="E49" s="13">
-        <v>1</v>
-      </c>
-      <c r="F49" s="13">
-        <v>2000</v>
-      </c>
-      <c r="G49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -10741,16 +11393,10 @@
       <c r="D50" s="13">
         <v>8</v>
       </c>
-      <c r="E50" s="13">
-        <v>1</v>
-      </c>
-      <c r="F50" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -10763,16 +11409,12 @@
       <c r="D51" s="13">
         <v>8</v>
       </c>
-      <c r="E51" s="13">
-        <v>2</v>
-      </c>
-      <c r="F51" s="13">
-        <v>10</v>
-      </c>
-      <c r="G51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>8</v>
       </c>
@@ -10785,16 +11427,12 @@
       <c r="D52" s="13">
         <v>10</v>
       </c>
-      <c r="E52" s="13">
-        <v>2</v>
-      </c>
-      <c r="F52" s="13">
-        <v>20</v>
-      </c>
-      <c r="G52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -10807,16 +11445,12 @@
       <c r="D53" s="13">
         <v>13</v>
       </c>
-      <c r="E53" s="13">
-        <v>2</v>
-      </c>
-      <c r="F53" s="13">
-        <v>30</v>
-      </c>
-      <c r="G53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -10826,7 +11460,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -10836,7 +11470,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -10846,9 +11480,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -10857,13 +11491,11 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -10872,31 +11504,25 @@
         <v>38</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>46</v>
@@ -10914,20 +11540,14 @@
         <v>49</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -10943,18 +11563,12 @@
         <v>15</v>
       </c>
       <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I60" s="4">
-        <v>3</v>
-      </c>
-      <c r="J60" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H60" s="4"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -10970,18 +11584,12 @@
         <v>30</v>
       </c>
       <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I61" s="4">
-        <v>5</v>
-      </c>
-      <c r="J61" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -10997,18 +11605,12 @@
         <v>60</v>
       </c>
       <c r="G62" s="4">
-        <v>2</v>
-      </c>
-      <c r="H62" s="4">
-        <v>300</v>
-      </c>
-      <c r="I62" s="4">
         <v>9</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -11023,19 +11625,13 @@
       <c r="F63" s="4">
         <v>10</v>
       </c>
-      <c r="G63" s="13">
-        <v>1</v>
-      </c>
-      <c r="H63" s="13">
-        <v>1000</v>
-      </c>
-      <c r="I63" s="4">
-        <v>3</v>
-      </c>
-      <c r="J63" s="4"/>
+      <c r="G63" s="4">
+        <v>3</v>
+      </c>
+      <c r="H63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>5</v>
       </c>
@@ -11050,19 +11646,13 @@
       <c r="F64" s="4">
         <v>20</v>
       </c>
-      <c r="G64" s="13">
-        <v>1</v>
-      </c>
-      <c r="H64" s="13">
-        <v>20000</v>
-      </c>
-      <c r="I64" s="4">
-        <v>5</v>
-      </c>
-      <c r="J64" s="4"/>
+      <c r="G64" s="4">
+        <v>5</v>
+      </c>
+      <c r="H64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>6</v>
       </c>
@@ -11077,19 +11667,13 @@
       <c r="F65" s="4">
         <v>30</v>
       </c>
-      <c r="G65" s="13">
-        <v>1</v>
-      </c>
-      <c r="H65" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I65" s="4">
+      <c r="G65" s="4">
         <v>9</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="H65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>7</v>
       </c>
@@ -11104,19 +11688,13 @@
       <c r="F66" s="4">
         <v>12</v>
       </c>
-      <c r="G66" s="13">
-        <v>2</v>
-      </c>
-      <c r="H66" s="13">
-        <v>100</v>
-      </c>
-      <c r="I66" s="4">
-        <v>3</v>
-      </c>
-      <c r="J66" s="4"/>
+      <c r="G66" s="4">
+        <v>3</v>
+      </c>
+      <c r="H66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>8</v>
       </c>
@@ -11131,19 +11709,13 @@
       <c r="F67" s="4">
         <v>24</v>
       </c>
-      <c r="G67" s="13">
-        <v>2</v>
-      </c>
-      <c r="H67" s="13">
-        <v>200</v>
-      </c>
-      <c r="I67" s="4">
-        <v>5</v>
-      </c>
-      <c r="J67" s="4"/>
+      <c r="G67" s="4">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -11156,16 +11728,10 @@
       <c r="F68" s="4">
         <v>48</v>
       </c>
-      <c r="G68" s="13">
-        <v>2</v>
-      </c>
-      <c r="H68" s="13">
-        <v>300</v>
-      </c>
-      <c r="I68" s="4">
+      <c r="G68" s="4">
         <v>9</v>
       </c>
-      <c r="J68" s="4"/>
+      <c r="H68" s="4"/>
       <c r="K68" s="4"/>
     </row>
   </sheetData>
@@ -11182,14 +11748,14 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
@@ -11201,7 +11767,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -11219,7 +11785,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -11237,12 +11803,12 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -11253,41 +11819,41 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11297,7 +11863,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11307,9 +11873,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="4"/>
@@ -11319,9 +11885,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>58</v>
@@ -11333,12 +11899,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -11357,27 +11923,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941B4FC1-97F5-45ED-8EDC-BB551273EF2A}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A125" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="24.8984375" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11389,71 +11955,71 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -11482,7 +12048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -11511,7 +12077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -11540,7 +12106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -11569,7 +12135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -11598,7 +12164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -11627,7 +12193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -11656,7 +12222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -11685,7 +12251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -11714,7 +12280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -11743,7 +12309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -11772,7 +12338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -11801,7 +12367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -11830,7 +12396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -11859,7 +12425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -11888,7 +12454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -11917,7 +12483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -11946,7 +12512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -11975,7 +12541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -12004,7 +12570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -12033,7 +12599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -12062,7 +12628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -12091,7 +12657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -12120,7 +12686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -12149,7 +12715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -12178,7 +12744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -12207,7 +12773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -12236,7 +12802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -12265,7 +12831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -12294,7 +12860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -12323,7 +12889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -12352,7 +12918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -12381,7 +12947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -12410,7 +12976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -12439,7 +13005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -12468,7 +13034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -12497,7 +13063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -12526,7 +13092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -12555,7 +13121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -12584,7 +13150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -12613,7 +13179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -12642,7 +13208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -12671,7 +13237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -12700,7 +13266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -12729,7 +13295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -12758,7 +13324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -12787,7 +13353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -12816,7 +13382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -12845,7 +13411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -12874,7 +13440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -12903,7 +13469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -12932,7 +13498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -12961,7 +13527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -12990,7 +13556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -13019,7 +13585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -13048,7 +13614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -13077,7 +13643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -13106,7 +13672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -13135,7 +13701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -13164,7 +13730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -13193,7 +13759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -13222,7 +13788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -13251,7 +13817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -13280,7 +13846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -13309,7 +13875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -13338,7 +13904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -13367,7 +13933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -13396,7 +13962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -13425,7 +13991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -13454,7 +14020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -13483,7 +14049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -13512,7 +14078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -13541,7 +14107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -13570,7 +14136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -13599,7 +14165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -13628,7 +14194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -13657,7 +14223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -13686,7 +14252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -13715,7 +14281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -13744,7 +14310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -13773,7 +14339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -13802,7 +14368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -13831,7 +14397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -13860,7 +14426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -13889,7 +14455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -13918,7 +14484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -13947,7 +14513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -13976,7 +14542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -14005,7 +14571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -14034,7 +14600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -14063,7 +14629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -14092,7 +14658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -14121,7 +14687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -14150,7 +14716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -14179,7 +14745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -14208,7 +14774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -14237,7 +14803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -14266,7 +14832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -14295,7 +14861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -14324,7 +14890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -14353,7 +14919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -14382,7 +14948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -14411,7 +14977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -14440,7 +15006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -14469,7 +15035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -14498,7 +15064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -14527,7 +15093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -14556,7 +15122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -14585,7 +15151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -14614,7 +15180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -14643,7 +15209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -14672,7 +15238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -14701,7 +15267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -14730,7 +15296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -14759,7 +15325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -14788,7 +15354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -14817,7 +15383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -14846,7 +15412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -14875,7 +15441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -14904,7 +15470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -14933,7 +15499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -14962,7 +15528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -14991,7 +15557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -15020,7 +15586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -15049,7 +15615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -15078,7 +15644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -15107,7 +15673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -15136,7 +15702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -15165,7 +15731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -15194,7 +15760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -15223,7 +15789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -15252,7 +15818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -15281,7 +15847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -15310,7 +15876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -15339,7 +15905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -15368,7 +15934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -15397,7 +15963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -15426,7 +15992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -15455,7 +16021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -15484,7 +16050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -15513,7 +16079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -15542,7 +16108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -15571,7 +16137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -15600,7 +16166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -15629,7 +16195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -15658,7 +16224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -15687,7 +16253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -15716,7 +16282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -15745,7 +16311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -15774,7 +16340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -15803,7 +16369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -15832,7 +16398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -15861,7 +16427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -15890,8 +16456,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -15901,7 +16467,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -15911,9 +16477,9 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -15924,18 +16490,18 @@
       <c r="H160" s="24"/>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>69</v>
@@ -15944,16 +16510,16 @@
         <v>84</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>67</v>
       </c>
@@ -15961,13 +16527,13 @@
         <v>82</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>83</v>
@@ -15976,13 +16542,13 @@
         <v>68</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="13">
         <v>1</v>
       </c>
@@ -16008,7 +16574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="13">
         <v>2</v>
       </c>
@@ -16034,7 +16600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="13">
         <v>3</v>
       </c>
@@ -16060,7 +16626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="13">
         <v>4</v>
       </c>
@@ -16086,7 +16652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="13">
         <v>5</v>
       </c>
@@ -16112,7 +16678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="13">
         <v>6</v>
       </c>
@@ -16138,7 +16704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="13">
         <v>7</v>
       </c>
@@ -16164,7 +16730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="13">
         <v>8</v>
       </c>
@@ -16190,7 +16756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="13">
         <v>9</v>
       </c>
@@ -16216,7 +16782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="13">
         <v>10</v>
       </c>
@@ -16242,25 +16808,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H173" s="13"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H175" s="13"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H179" s="13"/>
     </row>
   </sheetData>

--- a/DataDocs/기획 데이터.xlsx
+++ b/DataDocs/기획 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B124A3-C7A7-4235-B0EF-745779528590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE646672-7208-4264-B821-8A2B189F8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="날씨 관련 기획 데이터" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="320">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>function_code (기능 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing_item_function_data (아이템과 기능 매핑 테이블)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1293,6 +1289,10 @@
   </si>
   <si>
     <t>아이템타입(낚시대, 낚시줄, 바늘, 미끼, 릴, 업데이트 부품, 버프/회복 아이템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,21 +1814,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9CB7A9-8D33-45FD-BA82-E37A9C3AD84C}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>221</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2012,8 +2012,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2027,7 +2027,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>222</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>98</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2205,7 +2205,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2219,7 +2219,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>223</v>
       </c>
@@ -2235,15 +2235,15 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>102</v>
@@ -2259,7 +2259,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2356,19 +2356,19 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2378,7 +2378,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2767,20 +2767,20 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.19921875" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
     <col min="7" max="7" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2792,15 +2792,15 @@
       <c r="J1" s="6"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>146</v>
@@ -2815,9 +2815,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -2838,7 +2838,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3336,18 +3336,18 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="34.09765625" customWidth="1"/>
-    <col min="4" max="4" width="22.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3357,18 +3357,18 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -3378,7 +3378,7 @@
       <c r="H2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>63</v>
@@ -3399,7 +3399,7 @@
       <c r="H3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -3770,12 +3770,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3785,9 +3785,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3797,12 +3797,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>79</v>
@@ -3815,7 +3815,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>3</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>7</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>9</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>11</v>
       </c>
@@ -3960,13 +3960,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3976,9 +3976,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="13"/>
@@ -3988,7 +3988,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>8</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>9</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>9</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>9</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>10</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>10</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>11</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>11</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>11</v>
       </c>
@@ -4289,19 +4289,19 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
-    <col min="2" max="2" width="27.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4311,7 +4311,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4500,19 +4500,19 @@
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="30" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4524,7 +4524,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>146</v>
@@ -4550,7 +4550,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>154</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -5550,22 +5550,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="3"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -5575,7 +5575,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
@@ -5814,25 +5814,25 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.8984375" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" customWidth="1"/>
-    <col min="10" max="10" width="29.3984375" customWidth="1"/>
-    <col min="11" max="11" width="25.19921875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.09765625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="29.375" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -5846,7 +5846,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>150</v>
@@ -5922,7 +5922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6072,7 +6072,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6082,9 +6082,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -6092,7 +6092,7 @@
       <c r="E10" s="25"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>179</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>175</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>7</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>9</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>10</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>12</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>15</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>16</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>17</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>18</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>19</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>20</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>21</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>22</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>23</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>24</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>26</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>27</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>28</v>
       </c>
@@ -6538,9 +6538,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -6551,7 +6551,7 @@
       <c r="H43" s="7"/>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>180</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="H44" s="7"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>152</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>1</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="H46" s="7"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>2</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="H47" s="7"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
         <v>3</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="H48" s="7"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>4</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="H49" s="7"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>5</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="H50" s="7"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>6</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="H51" s="7"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>7</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="H52" s="7"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>8</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="H53" s="7"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>9</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="H54" s="7"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>10</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="H55" s="7"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>11</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="H56" s="7"/>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
         <v>12</v>
       </c>
@@ -6792,7 +6792,7 @@
       <c r="H57" s="7"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>13</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="H58" s="7"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
         <v>14</v>
       </c>
@@ -6826,7 +6826,7 @@
       <c r="H59" s="7"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>15</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="H60" s="7"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>16</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="H61" s="7"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>17</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="H62" s="7"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>18</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="H63" s="7"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>19</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>20</v>
       </c>
@@ -6926,7 +6926,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -6936,7 +6936,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6946,7 +6946,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -6957,9 +6957,9 @@
       <c r="H68" s="9"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -6970,7 +6970,7 @@
       <c r="H69" s="7"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>181</v>
       </c>
@@ -6978,10 +6978,10 @@
         <v>36</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>106</v>
@@ -6993,7 +6993,7 @@
       <c r="H70" s="7"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>153</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>1</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="29">
         <v>3</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>4</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>5</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>6</v>
       </c>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>7</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>8</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>9</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>10</v>
       </c>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>11</v>
       </c>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>12</v>
       </c>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>13</v>
       </c>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>14</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="29">
         <v>15</v>
       </c>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>16</v>
       </c>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="29">
         <v>17</v>
       </c>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>18</v>
       </c>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="29">
         <v>19</v>
       </c>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="29">
         <v>20</v>
       </c>
@@ -7402,25 +7402,25 @@
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" customWidth="1"/>
-    <col min="11" max="11" width="17.09765625" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -7434,7 +7434,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8045,7 +8045,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8055,9 +8055,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8065,13 +8065,13 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -8086,16 +8086,16 @@
         <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -8110,14 +8110,14 @@
         <v>110</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -8161,7 +8161,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -8251,7 +8251,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>8</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>9</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>10</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>11</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>12</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>13</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>14</v>
       </c>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>15</v>
       </c>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>16</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>17</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>18</v>
       </c>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>19</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>20</v>
       </c>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>22</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>23</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>24</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>25</v>
       </c>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>26</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>27</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>28</v>
       </c>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>29</v>
       </c>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>30</v>
       </c>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>31</v>
       </c>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>32</v>
       </c>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>33</v>
       </c>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>34</v>
       </c>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>35</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>36</v>
       </c>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>37</v>
       </c>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>38</v>
       </c>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>39</v>
       </c>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>40</v>
       </c>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>41</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>42</v>
       </c>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>43</v>
       </c>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44</v>
       </c>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>45</v>
       </c>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>46</v>
       </c>
@@ -9109,7 +9109,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>47</v>
       </c>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>48</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>49</v>
       </c>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>50</v>
       </c>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>51</v>
       </c>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>52</v>
       </c>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>53</v>
       </c>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>54</v>
       </c>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>55</v>
       </c>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>56</v>
       </c>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>57</v>
       </c>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>58</v>
       </c>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>59</v>
       </c>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>60</v>
       </c>
@@ -9420,20 +9420,20 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" customWidth="1"/>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="3" max="3" width="44.59765625" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="6" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="6.69921875" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9449,7 +9449,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -9483,7 +9483,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9497,7 +9497,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -9511,7 +9511,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -9575,19 +9575,19 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -9683,31 +9683,31 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
@@ -9755,12 +9755,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9770,7 +9770,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -9786,12 +9786,12 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>63</v>
@@ -9802,7 +9802,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -9830,232 +9830,232 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="13"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
-        <v>2</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>290</v>
-      </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="3">
-        <v>2</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="3">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="13"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C67" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C68" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C69" s="3">
         <v>1000</v>
@@ -10076,21 +10076,21 @@
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.09765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.19921875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="16.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.69921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10099,18 +10099,18 @@
       <c r="F1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>143</v>
@@ -10119,18 +10119,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>142</v>
@@ -10139,12 +10139,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3">
         <v>1000</v>
@@ -10156,46 +10156,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
     </row>
   </sheetData>
@@ -10210,29 +10210,29 @@
   <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" customWidth="1"/>
-    <col min="8" max="8" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.8984375" customWidth="1"/>
-    <col min="12" max="12" width="12.09765625" customWidth="1"/>
-    <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10248,7 +10248,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>127</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -10324,7 +10324,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -10390,7 +10390,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -10423,7 +10423,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -10456,7 +10456,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -10555,7 +10555,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -10588,7 +10588,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10621,7 +10621,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10631,9 +10631,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -10647,7 +10647,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>127</v>
       </c>
@@ -10681,7 +10681,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -10743,7 +10743,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10771,7 +10771,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -10799,7 +10799,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -10905,7 +10905,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10968,7 +10968,7 @@
       <c r="H26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10979,9 +10979,9 @@
       <c r="H27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10993,7 +10993,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>127</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>126</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -11060,7 +11060,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11080,7 +11080,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -11120,7 +11120,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>6</v>
       </c>
@@ -11160,7 +11160,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -11180,7 +11180,7 @@
       <c r="I37" s="13"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -11200,7 +11200,7 @@
       <c r="I38" s="13"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>9</v>
       </c>
@@ -11220,7 +11220,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -11230,7 +11230,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -11242,9 +11242,9 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -11256,7 +11256,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>127</v>
       </c>
@@ -11278,7 +11278,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="E46" s="4"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>3</v>
       </c>
@@ -11348,7 +11348,7 @@
       <c r="E47" s="4"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="E48" s="4"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="E49" s="4"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="E50" s="4"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -11414,7 +11414,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>8</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11460,7 +11460,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11470,7 +11470,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11480,9 +11480,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11493,7 +11493,7 @@
       <c r="H57" s="24"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
         <v>127</v>
       </c>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>126</v>
       </c>
@@ -11547,7 +11547,7 @@
       </c>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -11568,7 +11568,7 @@
       <c r="H60" s="4"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -11589,7 +11589,7 @@
       <c r="H61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="H62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="H63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>5</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="H64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>6</v>
       </c>
@@ -11673,7 +11673,7 @@
       <c r="H65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>7</v>
       </c>
@@ -11694,7 +11694,7 @@
       <c r="H66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>8</v>
       </c>
@@ -11715,7 +11715,7 @@
       <c r="H67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -11742,20 +11742,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF44733-8024-4A85-A0A6-A68DB07D187A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>93</v>
       </c>
@@ -11767,7 +11767,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -11785,7 +11785,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -11803,12 +11803,12 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -11819,41 +11819,41 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11863,7 +11863,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11873,9 +11873,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="4"/>
@@ -11885,33 +11885,70 @@
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11923,27 +11960,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941B4FC1-97F5-45ED-8EDC-BB551273EF2A}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="24.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11955,7 +11992,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -11963,7 +12000,7 @@
         <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>145</v>
@@ -11978,16 +12015,16 @@
         <v>136</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -12010,16 +12047,16 @@
         <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -12048,7 +12085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -12077,7 +12114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -12106,7 +12143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -12135,7 +12172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -12164,7 +12201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -12193,7 +12230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -12222,7 +12259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -12251,7 +12288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -12280,7 +12317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -12309,7 +12346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -12338,7 +12375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -12367,7 +12404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -12396,7 +12433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -12425,7 +12462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -12454,7 +12491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -12483,7 +12520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -12512,7 +12549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -12541,7 +12578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -12570,7 +12607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -12599,7 +12636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -12628,7 +12665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -12657,7 +12694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -12686,7 +12723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -12715,7 +12752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -12744,7 +12781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -12773,7 +12810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -12802,7 +12839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -12831,7 +12868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -12860,7 +12897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -12889,7 +12926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -12918,7 +12955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -12947,7 +12984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -12976,7 +13013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -13005,7 +13042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -13034,7 +13071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -13063,7 +13100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -13092,7 +13129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -13121,7 +13158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -13150,7 +13187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -13179,7 +13216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -13208,7 +13245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -13237,7 +13274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -13266,7 +13303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -13295,7 +13332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -13324,7 +13361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -13353,7 +13390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -13382,7 +13419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -13411,7 +13448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -13440,7 +13477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -13469,7 +13506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -13498,7 +13535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -13527,7 +13564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -13556,7 +13593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -13585,7 +13622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -13614,7 +13651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -13643,7 +13680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -13672,7 +13709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -13701,7 +13738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -13730,7 +13767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -13759,7 +13796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -13788,7 +13825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -13817,7 +13854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -13846,7 +13883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -13875,7 +13912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -13904,7 +13941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -13933,7 +13970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -13962,7 +13999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -13991,7 +14028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -14020,7 +14057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -14049,7 +14086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -14078,7 +14115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -14107,7 +14144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -14136,7 +14173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -14165,7 +14202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -14194,7 +14231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -14223,7 +14260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -14252,7 +14289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -14281,7 +14318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -14310,7 +14347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -14339,7 +14376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -14368,7 +14405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -14397,7 +14434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -14426,7 +14463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -14455,7 +14492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -14484,7 +14521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -14513,7 +14550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -14542,7 +14579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -14571,7 +14608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -14600,7 +14637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -14629,7 +14666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -14658,7 +14695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -14687,7 +14724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -14716,7 +14753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -14745,7 +14782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -14774,7 +14811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -14803,7 +14840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -14832,7 +14869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -14861,7 +14898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -14890,7 +14927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -14919,7 +14956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -14948,7 +14985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -14977,7 +15014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -15006,7 +15043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -15035,7 +15072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -15064,7 +15101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -15093,7 +15130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -15122,7 +15159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -15151,7 +15188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -15180,7 +15217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -15209,7 +15246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -15238,7 +15275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -15267,7 +15304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -15296,7 +15333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -15325,7 +15362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -15354,7 +15391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -15383,7 +15420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -15412,7 +15449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -15441,7 +15478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -15470,7 +15507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -15499,7 +15536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -15528,7 +15565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -15557,7 +15594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -15586,7 +15623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -15615,7 +15652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -15644,7 +15681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -15673,7 +15710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -15702,7 +15739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -15731,7 +15768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -15760,7 +15797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -15789,7 +15826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -15818,7 +15855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -15847,7 +15884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -15876,7 +15913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -15905,7 +15942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -15934,7 +15971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -15963,7 +16000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -15992,7 +16029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -16021,7 +16058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -16050,7 +16087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -16079,7 +16116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -16108,7 +16145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -16137,7 +16174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -16166,7 +16203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -16195,7 +16232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -16224,7 +16261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -16253,7 +16290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -16282,7 +16319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -16311,7 +16348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -16340,7 +16377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -16369,7 +16406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -16398,7 +16435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -16427,7 +16464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -16456,8 +16493,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -16467,7 +16504,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16477,9 +16514,9 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -16490,7 +16527,7 @@
       <c r="H160" s="24"/>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>66</v>
       </c>
@@ -16519,7 +16556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>67</v>
       </c>
@@ -16548,7 +16585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>1</v>
       </c>
@@ -16574,7 +16611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>2</v>
       </c>
@@ -16600,7 +16637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>3</v>
       </c>
@@ -16626,7 +16663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>4</v>
       </c>
@@ -16652,7 +16689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>5</v>
       </c>
@@ -16678,7 +16715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>6</v>
       </c>
@@ -16704,7 +16741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>7</v>
       </c>
@@ -16730,7 +16767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>8</v>
       </c>
@@ -16756,7 +16793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>9</v>
       </c>
@@ -16782,7 +16819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>10</v>
       </c>
@@ -16808,25 +16845,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H173" s="13"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H175" s="13"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H179" s="13"/>
     </row>
   </sheetData>

--- a/DataDocs/기획 데이터.xlsx
+++ b/DataDocs/기획 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE646672-7208-4264-B821-8A2B189F8B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D24B2-ADF9-42C3-B400-3D41E91345E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="날씨 관련 기획 데이터" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,10 @@
     <sheet name="채비 아이템 등급별 데이터" sheetId="5" r:id="rId7"/>
     <sheet name="채비별 기능코드 데이터" sheetId="15" r:id="rId8"/>
     <sheet name="업그레이드 관련 데이터" sheetId="9" r:id="rId9"/>
-    <sheet name="경매 관련 데이터" sheetId="10" r:id="rId10"/>
-    <sheet name="수리관련 데이터" sheetId="16" r:id="rId11"/>
-    <sheet name="보상관련 데이터" sheetId="17" r:id="rId12"/>
-    <sheet name="유저 레벨 관련 데이터" sheetId="18" r:id="rId13"/>
-    <sheet name="상점 데이터" sheetId="19" r:id="rId14"/>
+    <sheet name="수리관련 데이터" sheetId="16" r:id="rId10"/>
+    <sheet name="보상관련 데이터" sheetId="17" r:id="rId11"/>
+    <sheet name="유저 레벨 관련 데이터" sheetId="18" r:id="rId12"/>
+    <sheet name="상점 데이터" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,16 +46,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="313">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물고기코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wave_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>appear_probability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,14 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경매코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>min_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,878 +404,867 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>최대 피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화되는 일정시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화되는 폭 +-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등장확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급/가치 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 시간(거리에 비례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당? 차감 피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 가치 (가치는 물고기의 크기와 회귀도를 계산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water_splash_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물돌이 시간 (일주일 간격으로 물때 계산?...좀더 생각해보기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 추 부하g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 추 부하g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 물고기 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 권사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_grade_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 최소가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 최대가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>추의 무게 (아이템이 추일 경우 사용, 추는 따로 등급없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_price</t>
+  </si>
+  <si>
+    <t>upgrad_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 성공 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드별 기능 상승, 증가 확률 (1강, 2강, 3강 각각 확률 다름?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템코드 (배 코드, 아이템 등급코드 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 업그레이드 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_code</t>
+  </si>
+  <si>
+    <t>money_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 출몰하는 물고기 종류 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트성 세일 퍼센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_tide_time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만조시간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간조시간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_tide_time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_tide_time2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_tide_time2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만조시간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간조시간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얕은연안1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은연안1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼바다1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리바다1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대수심(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_size_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 크기 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍량코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_tide_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수간만차 순서 (1주일마다 반복)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입 (낚시대의 경질대, 연질대?에 대한 구분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 조수간만차 코드</t>
+  </si>
+  <si>
+    <t>지역별 물고기 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 아이템 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기2</t>
+  </si>
+  <si>
+    <t>물고기3</t>
+  </si>
+  <si>
+    <t>물고기4</t>
+  </si>
+  <si>
+    <t>물고기5</t>
+  </si>
+  <si>
+    <t>물고기6</t>
+  </si>
+  <si>
+    <t>물고기7</t>
+  </si>
+  <si>
+    <t>물고기8</t>
+  </si>
+  <si>
+    <t>물고기9</t>
+  </si>
+  <si>
+    <t>물고기10</t>
+  </si>
+  <si>
+    <t>물고기11</t>
+  </si>
+  <si>
+    <t>물고기12</t>
+  </si>
+  <si>
+    <t>물고기13</t>
+  </si>
+  <si>
+    <t>물고기14</t>
+  </si>
+  <si>
+    <t>물고기15</t>
+  </si>
+  <si>
+    <t>낚시대1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대2</t>
+  </si>
+  <si>
+    <t>낚시대3</t>
+  </si>
+  <si>
+    <t>낚시줄1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시줄2</t>
+  </si>
+  <si>
+    <t>낚시줄3</t>
+  </si>
+  <si>
+    <t>낚시 미끼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 미끼2</t>
+  </si>
+  <si>
+    <t>낚시 미끼3</t>
+  </si>
+  <si>
+    <t>낚시 릴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 릴2</t>
+  </si>
+  <si>
+    <t>낚시 릴3</t>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather_info_data (날씨 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature_info_data (온도 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_info_data (풍량 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템등급코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_function_data (아이템과 기능 매핑 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_rod_grade_data (낚시대 등급별 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_line_grade_data (낚시줄 등급별 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_needle_grade_data (바늘 등급별 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_bait_grade_data (낚시 미끼 등급별 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_reel_grade_data (릴 등급별 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_info_data (낚시 아이템 정의 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade_info_data (등급 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_info_data (재화 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_info_data (물고기 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_grade_data (물고기 등급 및 범위 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_info_data (지도 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_data (지역별 출몰 물고기 매핑 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_tide_data (지역별 조수간만차 매핑 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_item_data (지역별 출몰하는 아이템 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_info_data (조수간만차 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_upgrade_data (채비 아이템 업그레이드 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_item_upgrade_data (낚시배 업그레이트 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_repair_info_data (아이템 수리 가격 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation_info_data (보상 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest_info_data (퀘스트 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_level_info_data (캐릭터 레벨 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바늘3</t>
+  </si>
+  <si>
+    <t>훅킹 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 등장 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(낚시대, 낚시줄, 릴 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(낚시대, 낚시줄, 릴, 낚시배 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_code</t>
+  </si>
+  <si>
+    <t>수리코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_info_data (낚시배 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보로롱24호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상아이템코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상(금액, 개수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상아이템타입(재화, 바늘, 미끼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트타입(레벨업, 도감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_experience</t>
+  </si>
+  <si>
+    <t>가치 = 크기 * 희귀도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_grade_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 등급 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드에 필요한 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_info_data (국가 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_info_data (언어 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 시 필요한 부품 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품2</t>
+  </si>
+  <si>
+    <t>부품3</t>
+  </si>
+  <si>
+    <t>upgrade_item_count</t>
+  </si>
+  <si>
+    <t>아이템 타입 (낚시대,, 낚시줄, 바늘, 미끼, 릴, 업데이트 부품)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 코드(채비 등급코드, 업그레이드 부품코드 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_data (업그레이드 부품 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_data (버프/회복 정의 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 증가량 (피로도 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 100 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 500 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 1000 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템타입(낚시대, 낚시줄, 바늘, 미끼, 릴, 업데이트 부품, 버프/회복 아이템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">function_info_data </t>
-  </si>
-  <si>
-    <t>최대 피로도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_fatigue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화되는 일정시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화되는 폭 +-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등장확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급/가치 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항 시간(거리에 비례)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분당? 차감 피로도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departure_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departure_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 가치 (가치는 물고기의 크기와 회귀도를 계산)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water_splash_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물돌이 시간 (일주일 간격으로 물때 계산?...좀더 생각해보기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 추 부하g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 추 부하g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 물고기 등장 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴 권사량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_grade_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 최소가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 최대가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>추의 무게 (아이템이 추일 경우 사용, 추는 따로 등급없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_price</t>
-  </si>
-  <si>
-    <t>upgrad_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 성공 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드별 기능 상승, 증가 확률 (1강, 2강, 3강 각각 확률 다름?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시배 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템코드 (배 코드, 아이템 등급코드 사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 금액 (물고기 정보의 최소 ~ 최대 값 사이정도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 업그레이드 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_code</t>
-  </si>
-  <si>
-    <t>money_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_fish_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 출몰하는 물고기 종류 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_fish_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_item_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale_percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트성 세일 퍼센트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high_tide_time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만조시간1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간조시간1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low_tide_time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high_tide_time2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low_tide_time2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만조시간2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간조시간2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얕은연안1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깊은연안1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먼바다1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근거리바다1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대수심(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_size_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 크기 확률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍량코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_tide_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide_sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조수간만차 순서 (1주일마다 반복)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입 (낚시대의 경질대, 연질대?에 대한 구분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 조수간만차 코드</t>
-  </si>
-  <si>
-    <t>지역별 물고기 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 아이템 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기2</t>
-  </si>
-  <si>
-    <t>물고기3</t>
-  </si>
-  <si>
-    <t>물고기4</t>
-  </si>
-  <si>
-    <t>물고기5</t>
-  </si>
-  <si>
-    <t>물고기6</t>
-  </si>
-  <si>
-    <t>물고기7</t>
-  </si>
-  <si>
-    <t>물고기8</t>
-  </si>
-  <si>
-    <t>물고기9</t>
-  </si>
-  <si>
-    <t>물고기10</t>
-  </si>
-  <si>
-    <t>물고기11</t>
-  </si>
-  <si>
-    <t>물고기12</t>
-  </si>
-  <si>
-    <t>물고기13</t>
-  </si>
-  <si>
-    <t>물고기14</t>
-  </si>
-  <si>
-    <t>물고기15</t>
-  </si>
-  <si>
-    <t>낚시대1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시대2</t>
-  </si>
-  <si>
-    <t>낚시대3</t>
-  </si>
-  <si>
-    <t>낚시줄1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시줄2</t>
-  </si>
-  <si>
-    <t>낚시줄3</t>
-  </si>
-  <si>
-    <t>낚시 미끼1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 미끼2</t>
-  </si>
-  <si>
-    <t>낚시 미끼3</t>
-  </si>
-  <si>
-    <t>낚시 릴1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 릴2</t>
-  </si>
-  <si>
-    <t>낚시 릴3</t>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weather_info_data (날씨 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature_info_data (온도 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind_info_data (풍량 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템등급코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_function_data (아이템과 기능 매핑 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_rod_grade_data (낚시대 등급별 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_line_grade_data (낚시줄 등급별 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_needle_grade_data (바늘 등급별 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_grade_data (낚시 미끼 등급별 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_reel_grade_data (릴 등급별 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_info_data (낚시 아이템 정의 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade_info_data (등급 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_info_data (재화 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_info_data (물고기 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_grade_data (물고기 등급 및 범위 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_info_data (지도 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_fish_data (지역별 출몰 물고기 매핑 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_tide_data (지역별 조수간만차 매핑 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_item_data (지역별 출몰하는 아이템 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide_info_data (조수간만차 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_info_data (경매 테이블(물고기 시세))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_upgrade_data (채비 아이템 업그레이드 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship_item_upgrade_data (낚시배 업그레이트 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_repair_info_data (아이템 수리 가격 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compensation_info_data (보상 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_info_data (퀘스트 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_level_info_data (캐릭터 레벨 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바늘1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바늘2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바늘3</t>
-  </si>
-  <si>
-    <t>훅킹 확률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제압 확률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 등장 확률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도 소모 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_compensation (퀘스트 보상 매핑 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_info (상점 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입(낚시대, 낚시줄, 릴 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입(낚시대, 낚시줄, 릴, 낚시배 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_code</t>
-  </si>
-  <si>
-    <t>수리코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship_info_data (낚시배 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시배 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ship_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보로롱24호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상아이템코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compensation_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상(금액, 개수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상아이템타입(재화, 바늘, 미끼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트타입(레벨업, 도감)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_experience</t>
-  </si>
-  <si>
-    <t>가치 = 크기 * 희귀도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_grade_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 등급 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드에 필요한 부품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country_info_data (국가 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language_info_data (언어 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 시 필요한 부품 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 부품 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 부품 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품2</t>
-  </si>
-  <si>
-    <t>부품3</t>
-  </si>
-  <si>
-    <t>upgrade_item_count</t>
-  </si>
-  <si>
-    <t>아이템 타입 (낚시대,, 낚시줄, 바늘, 미끼, 릴, 업데이트 부품)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 코드(채비 등급코드, 업그레이드 부품코드 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_data (업그레이드 부품 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소풍량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대풍량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_item_data (버프/회복 정의 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프/회복 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프/회복 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 증가량 (피로도 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_item_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 100 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 500 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 1000 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템타입(낚시대, 낚시줄, 바늘, 미끼, 릴, 업데이트 부품, 버프/회복 아이템)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest_compensation_data (퀘스트 보상 매핑 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_info_data (상점 테이블)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1815,7 +1787,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1830,7 +1802,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1849,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -1868,16 +1840,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="3"/>
@@ -2029,7 +2001,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2045,22 +2017,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2071,22 +2043,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2221,7 +2193,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2237,19 +2209,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2261,19 +2233,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2349,422 +2321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F76FDD-63C5-414E-977B-0F266FBB50CC}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>12</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>12</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>12</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>12</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76612FD3-E958-42E8-9222-A85034F7A7AB}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C42" sqref="C41:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2780,7 +2341,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2794,22 +2355,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2817,22 +2378,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3328,12 +2889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D29E62-D139-4E4B-8930-9078673BD77B}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3347,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3359,19 +2920,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3380,19 +2941,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3787,7 +3348,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3799,16 +3360,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="3"/>
@@ -3817,16 +3378,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="3"/>
@@ -3978,7 +3539,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="13"/>
@@ -3990,10 +3551,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -4001,10 +3562,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -4281,13 +3842,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8785E63E-4F59-4853-8C34-863487EB42F1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4301,7 +3860,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -4313,44 +3872,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4492,13 +4051,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D488F26-E726-47F3-8CA5-CA09F667A869}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
-    </sheetView>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4512,7 +4069,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -4526,25 +4083,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4552,25 +4109,25 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -5546,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81957EA4-B239-4C52-8700-A0A21529B74E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5565,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -5577,54 +5134,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
+      <c r="A3" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5810,8 +5367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDBAAD2-652A-470C-850D-6487000FE85F}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A61" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5832,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -5848,78 +5405,78 @@
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -5927,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -5962,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C5" s="3">
         <v>300</v>
@@ -5997,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C6" s="13">
         <v>500</v>
@@ -6032,7 +5589,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13">
         <v>1000</v>
@@ -6084,7 +5641,7 @@
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -6094,37 +5651,37 @@
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
@@ -6540,7 +6097,7 @@
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -6553,16 +6110,16 @@
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -6572,16 +6129,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
@@ -6959,7 +6516,7 @@
     </row>
     <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -6972,22 +6529,22 @@
     </row>
     <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -6995,22 +6552,22 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -7399,7 +6956,7 @@
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7420,7 +6977,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -7430,92 +6987,80 @@
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
@@ -7530,18 +7075,9 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7550,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -7565,18 +7101,9 @@
         <v>5</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7585,7 +7112,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3">
         <v>40</v>
@@ -7600,18 +7127,9 @@
         <v>5</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7620,7 +7138,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C7" s="13">
         <v>60</v>
@@ -7634,19 +7152,10 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="G7" s="13">
+        <v>7</v>
       </c>
       <c r="H7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J7" s="13">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7655,7 +7164,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C8" s="13">
         <v>80</v>
@@ -7669,19 +7178,10 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
+      <c r="G8" s="13">
+        <v>10</v>
       </c>
       <c r="H8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="13">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7690,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C9" s="13">
         <v>100</v>
@@ -7704,19 +7204,10 @@
       <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
+      <c r="G9" s="13">
+        <v>5</v>
       </c>
       <c r="H9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="13">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7725,7 +7216,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C10" s="13">
         <v>120</v>
@@ -7739,19 +7230,10 @@
       <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
+      <c r="G10" s="13">
+        <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7760,7 +7242,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C11" s="13">
         <v>130</v>
@@ -7774,19 +7256,10 @@
       <c r="F11" s="3">
         <v>6</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
+      <c r="G11" s="13">
+        <v>6</v>
       </c>
       <c r="H11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="13">
-        <v>6</v>
-      </c>
-      <c r="K11" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7795,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C12" s="13">
         <v>200</v>
@@ -7809,19 +7282,10 @@
       <c r="F12" s="3">
         <v>6</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
+      <c r="G12" s="13">
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="13">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7830,7 +7294,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C13" s="13">
         <v>350</v>
@@ -7844,19 +7308,10 @@
       <c r="F13" s="3">
         <v>6</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
+      <c r="G13" s="13">
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="13">
-        <v>6</v>
-      </c>
-      <c r="K13" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7865,7 +7320,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C14" s="13">
         <v>300</v>
@@ -7879,19 +7334,10 @@
       <c r="F14" s="3">
         <v>6</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
+      <c r="G14" s="13">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="13">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
         <v>3</v>
       </c>
     </row>
@@ -7900,7 +7346,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C15" s="13">
         <v>700</v>
@@ -7914,28 +7360,23 @@
       <c r="F15" s="3">
         <v>7</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
+      <c r="G15" s="13">
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="13">
-        <v>6</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C16" s="13">
         <v>500</v>
@@ -7949,28 +7390,23 @@
       <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
+      <c r="G16" s="13">
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="13">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C17" s="13">
         <v>600</v>
@@ -7985,27 +7421,22 @@
         <v>7</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C18" s="13">
         <v>400</v>
@@ -8020,22 +7451,17 @@
         <v>7</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8045,7 +7471,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8055,69 +7481,87 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -8136,10 +7580,17 @@
       <c r="F24" s="13">
         <v>100</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -8158,10 +7609,17 @@
       <c r="F25" s="3">
         <v>200</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -8180,10 +7638,17 @@
       <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -8202,10 +7667,17 @@
       <c r="F27" s="13">
         <v>400</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -8224,10 +7696,17 @@
       <c r="F28" s="13">
         <v>100</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G28" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -8246,12 +7725,18 @@
       <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="G29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -8270,12 +7755,18 @@
       <c r="F30" s="3">
         <v>300</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>8</v>
       </c>
@@ -8294,12 +7785,18 @@
       <c r="F31" s="13">
         <v>400</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>9</v>
       </c>
@@ -8318,9 +7815,15 @@
       <c r="F32" s="13">
         <v>100</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -8342,9 +7845,15 @@
       <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="G33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -8366,9 +7875,15 @@
       <c r="F34" s="3">
         <v>300</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="G34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -8390,9 +7905,15 @@
       <c r="F35" s="13">
         <v>400</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="G35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -8414,7 +7935,15 @@
       <c r="F36" s="13">
         <v>100</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -8435,7 +7964,15 @@
       <c r="F37" s="3">
         <v>200</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -8456,7 +7993,15 @@
       <c r="F38" s="3">
         <v>300</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -8477,7 +8022,15 @@
       <c r="F39" s="13">
         <v>400</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H39" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -8498,7 +8051,15 @@
       <c r="F40" s="13">
         <v>100</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H40" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -8519,7 +8080,15 @@
       <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H41" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -8540,7 +8109,15 @@
       <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H42" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -8561,7 +8138,15 @@
       <c r="F43" s="13">
         <v>400</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H43" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -8582,7 +8167,15 @@
       <c r="F44" s="13">
         <v>100</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H44" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -8603,7 +8196,15 @@
       <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -8624,7 +8225,15 @@
       <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -8645,7 +8254,15 @@
       <c r="F47" s="13">
         <v>400</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H47" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -8666,9 +8283,17 @@
       <c r="F48" s="13">
         <v>100</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H48" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>26</v>
       </c>
@@ -8687,9 +8312,17 @@
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H49" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>27</v>
       </c>
@@ -8708,9 +8341,17 @@
       <c r="F50" s="3">
         <v>300</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H50" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>28</v>
       </c>
@@ -8729,9 +8370,17 @@
       <c r="F51" s="13">
         <v>400</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H51" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>29</v>
       </c>
@@ -8750,9 +8399,17 @@
       <c r="F52" s="13">
         <v>100</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H52" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>30</v>
       </c>
@@ -8771,9 +8428,17 @@
       <c r="F53" s="3">
         <v>200</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H53" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>31</v>
       </c>
@@ -8792,9 +8457,17 @@
       <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H54" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>32</v>
       </c>
@@ -8813,9 +8486,17 @@
       <c r="F55" s="13">
         <v>400</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H55" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>33</v>
       </c>
@@ -8834,9 +8515,17 @@
       <c r="F56" s="13">
         <v>100</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H56" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>34</v>
       </c>
@@ -8855,9 +8544,17 @@
       <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>35</v>
       </c>
@@ -8876,9 +8573,17 @@
       <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H58" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>36</v>
       </c>
@@ -8897,9 +8602,17 @@
       <c r="F59" s="13">
         <v>400</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H59" s="13">
+        <v>15000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>37</v>
       </c>
@@ -8918,9 +8631,17 @@
       <c r="F60" s="13">
         <v>100</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H60" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>38</v>
       </c>
@@ -8939,9 +8660,17 @@
       <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H61" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>39</v>
       </c>
@@ -8960,9 +8689,17 @@
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H62" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>40</v>
       </c>
@@ -8981,9 +8718,17 @@
       <c r="F63" s="13">
         <v>400</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H63" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>41</v>
       </c>
@@ -9002,9 +8747,17 @@
       <c r="F64" s="13">
         <v>100</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H64" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>42</v>
       </c>
@@ -9023,9 +8776,17 @@
       <c r="F65" s="3">
         <v>200</v>
       </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H65" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>43</v>
       </c>
@@ -9044,9 +8805,17 @@
       <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H66" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44</v>
       </c>
@@ -9065,9 +8834,17 @@
       <c r="F67" s="13">
         <v>400</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H67" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>45</v>
       </c>
@@ -9086,9 +8863,17 @@
       <c r="F68" s="13">
         <v>100</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H68" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>46</v>
       </c>
@@ -9107,9 +8892,17 @@
       <c r="F69" s="3">
         <v>200</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H69" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>47</v>
       </c>
@@ -9128,9 +8921,17 @@
       <c r="F70" s="3">
         <v>300</v>
       </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H70" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>48</v>
       </c>
@@ -9149,9 +8950,17 @@
       <c r="F71" s="13">
         <v>400</v>
       </c>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H71" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>49</v>
       </c>
@@ -9170,9 +8979,17 @@
       <c r="F72" s="13">
         <v>100</v>
       </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H72" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>50</v>
       </c>
@@ -9191,9 +9008,17 @@
       <c r="F73" s="3">
         <v>200</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H73" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>51</v>
       </c>
@@ -9212,9 +9037,17 @@
       <c r="F74" s="3">
         <v>300</v>
       </c>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H74" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>52</v>
       </c>
@@ -9233,9 +9066,17 @@
       <c r="F75" s="13">
         <v>400</v>
       </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H75" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>53</v>
       </c>
@@ -9254,9 +9095,17 @@
       <c r="F76" s="13">
         <v>100</v>
       </c>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H76" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>54</v>
       </c>
@@ -9275,9 +9124,17 @@
       <c r="F77" s="3">
         <v>200</v>
       </c>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H77" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>55</v>
       </c>
@@ -9296,9 +9153,17 @@
       <c r="F78" s="3">
         <v>300</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H78" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>56</v>
       </c>
@@ -9317,9 +9182,17 @@
       <c r="F79" s="13">
         <v>400</v>
       </c>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H79" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>57</v>
       </c>
@@ -9338,9 +9211,17 @@
       <c r="F80" s="13">
         <v>100</v>
       </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G80" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H80" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>58</v>
       </c>
@@ -9359,9 +9240,17 @@
       <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G81" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H81" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>59</v>
       </c>
@@ -9380,9 +9269,17 @@
       <c r="F82" s="3">
         <v>300</v>
       </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G82" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H82" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>60</v>
       </c>
@@ -9401,7 +9298,15 @@
       <c r="F83" s="13">
         <v>400</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H83" s="13">
+        <v>20000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9416,8 +9321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D190FDE1-416F-49C6-91A9-BD8A5F044218}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView topLeftCell="A40" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9433,7 +9338,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9451,13 +9356,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -9469,13 +9374,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -9488,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -9502,7 +9407,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9516,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -9524,7 +9429,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -9532,7 +9437,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -9540,7 +9445,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -9548,7 +9453,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -9556,7 +9461,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -9564,7 +9469,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -9572,7 +9477,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -9580,7 +9485,7 @@
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9589,16 +9494,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -9607,16 +9512,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -9628,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -9642,7 +9547,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9656,7 +9561,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -9664,7 +9569,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -9672,7 +9577,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -9680,7 +9585,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -9688,7 +9593,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -9696,7 +9601,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -9704,7 +9609,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -9712,7 +9617,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -9720,7 +9625,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -9728,7 +9633,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -9736,7 +9641,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -9744,7 +9649,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -9752,7 +9657,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -9760,7 +9665,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9772,13 +9677,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="3"/>
@@ -9788,13 +9693,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="3"/>
@@ -9807,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="13"/>
@@ -9821,7 +9726,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -9835,36 +9740,36 @@
         <v>3</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -9872,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -9883,31 +9788,31 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -9915,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -9924,38 +9829,38 @@
         <v>2</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="13"/>
     </row>
@@ -9964,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -9973,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -9982,7 +9887,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -9994,7 +9899,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -10002,30 +9907,30 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -10033,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C67" s="3">
         <v>100</v>
@@ -10044,7 +9949,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C68" s="3">
         <v>500</v>
@@ -10055,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C69" s="3">
         <v>1000</v>
@@ -10072,9 +9977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2FEA1B-A01E-4A2B-B1F6-94D9D5E3972B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
-    </sheetView>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10090,7 +9993,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10101,42 +10004,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -10144,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3">
         <v>1000</v>
@@ -10209,8 +10112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B2E8EC-9898-4606-A8E8-951C33C028FA}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView topLeftCell="A40" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10232,7 +10135,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10250,37 +10153,37 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -10288,37 +10191,37 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -10346,8 +10249,12 @@
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
       <c r="J4" s="4">
         <v>3</v>
       </c>
@@ -10379,8 +10286,12 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5" s="4">
         <v>5</v>
       </c>
@@ -10412,8 +10323,12 @@
       <c r="G6" s="4">
         <v>15</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
       <c r="J6" s="4">
         <v>9</v>
       </c>
@@ -10445,8 +10360,12 @@
       <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7" s="4">
         <v>3</v>
       </c>
@@ -10478,8 +10397,12 @@
       <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="4">
         <v>5</v>
       </c>
@@ -10511,8 +10434,12 @@
       <c r="G9" s="13">
         <v>8</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
       <c r="J9" s="4">
         <v>9</v>
       </c>
@@ -10544,8 +10471,12 @@
       <c r="G10" s="13">
         <v>8</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="4">
         <v>3</v>
       </c>
@@ -10577,8 +10508,12 @@
       <c r="G11" s="13">
         <v>10</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
@@ -10610,8 +10545,12 @@
       <c r="G12" s="13">
         <v>13</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="4">
         <v>9</v>
       </c>
@@ -10633,7 +10572,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -10649,68 +10588,68 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -10737,8 +10676,12 @@
       <c r="G17" s="4">
         <v>100</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -10765,8 +10708,12 @@
       <c r="G18" s="4">
         <v>200</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -10793,8 +10740,12 @@
       <c r="G19" s="4">
         <v>30</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -10821,8 +10772,12 @@
       <c r="G20" s="13">
         <v>100</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="12"/>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -10849,8 +10804,12 @@
       <c r="G21" s="13">
         <v>2000</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10875,8 +10834,12 @@
       <c r="G22" s="13">
         <v>10000</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10901,8 +10864,12 @@
       <c r="G23" s="13">
         <v>10</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="12"/>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10927,8 +10894,12 @@
       <c r="G24" s="13">
         <v>20</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="12"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10953,8 +10924,12 @@
       <c r="G25" s="13">
         <v>30</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10981,7 +10956,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -10995,22 +10970,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -11019,22 +10994,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -11244,7 +11219,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -11258,19 +11233,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -11280,19 +11255,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11482,7 +11457,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -11495,55 +11470,55 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K59" s="13"/>
     </row>
@@ -11557,8 +11532,12 @@
       <c r="C60" s="4">
         <v>5</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
       <c r="F60" s="4">
         <v>15</v>
       </c>
@@ -11578,8 +11557,12 @@
       <c r="C61" s="4">
         <v>6</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
       <c r="F61" s="4">
         <v>30</v>
       </c>
@@ -11599,8 +11582,12 @@
       <c r="C62" s="4">
         <v>7</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
       <c r="F62" s="4">
         <v>60</v>
       </c>
@@ -11620,8 +11607,12 @@
       <c r="C63" s="4">
         <v>5</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
       <c r="F63" s="4">
         <v>10</v>
       </c>
@@ -11641,8 +11632,12 @@
       <c r="C64" s="4">
         <v>6</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
       <c r="F64" s="4">
         <v>20</v>
       </c>
@@ -11662,8 +11657,12 @@
       <c r="C65" s="4">
         <v>7</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
       <c r="F65" s="4">
         <v>30</v>
       </c>
@@ -11683,8 +11682,12 @@
       <c r="C66" s="4">
         <v>5</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
       <c r="F66" s="4">
         <v>12</v>
       </c>
@@ -11704,8 +11707,12 @@
       <c r="C67" s="4">
         <v>6</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
       <c r="F67" s="4">
         <v>24</v>
       </c>
@@ -11724,6 +11731,12 @@
       </c>
       <c r="C68" s="4">
         <v>7</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
       </c>
       <c r="F68" s="4">
         <v>48</v>
@@ -11744,9 +11757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF44733-8024-4A85-A0A6-A68DB07D187A}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11757,7 +11768,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11769,16 +11780,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -11787,16 +11798,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -11808,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -11824,7 +11835,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -11835,7 +11846,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -11846,7 +11857,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -11875,7 +11886,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="4"/>
@@ -11887,13 +11898,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -11903,13 +11914,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -11960,8 +11971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941B4FC1-97F5-45ED-8EDC-BB551273EF2A}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView topLeftCell="A142" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11980,7 +11991,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11994,66 +12005,66 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -16516,7 +16527,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -16529,60 +16540,60 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
